--- a/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_EQ组.xlsx
@@ -188,11 +188,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不紧急</t>
+    <t>扫码项目增加账单列表无数据跳转订单页面的Button</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>扫码项目增加账单列表无数据跳转订单页面的Button</t>
+    <t>紧急</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +936,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1038,10 +1038,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>41</v>
